--- a/biology/Botanique/Silène_conique/Silène_conique.xlsx
+++ b/biology/Botanique/Silène_conique/Silène_conique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sil%C3%A8ne_conique</t>
+          <t>Silène_conique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Silene conica
 Le silène conique (Silene conica L.) est une plante herbacée annuelle de petite taille, appartenant à la famille des Caryophyllacées et au genre Silene. On le reconnaît assez facilement à ses fleurs roses, dont le calice est démesurément enflé, formant une sorte d'outre ou de cône à large base.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sil%C3%A8ne_conique</t>
+          <t>Silène_conique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le silène conique est une plante vert grisâtre basse, duveteuse, légèrement collante. Les feuilles sont opposées et lancéolées, les inférieures pétiolées, les supérieures sessiles. Les fleurs sont roses minuscules (0,5 mm, rarement plus) à 5 pétales faiblement échancrés, groupées en cymes comportant le plus souvent deux fleurs, parfois une seule. Le calice est très renflé portant de nombreuses nervures, environ une trentaine. 3 styles, 10 étamines. 
-La floraison a lieu de mai à juillet[1].
+La floraison a lieu de mai à juillet.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sil%C3%A8ne_conique</t>
+          <t>Silène_conique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : cyme bipare
